--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Анастасия\Desktop\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ООО    Аленький цветочек</t>
   </si>
@@ -58,17 +63,58 @@
   </si>
   <si>
     <t>Цена (руб)</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>рублей</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Египет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -121,6 +167,17 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -130,6 +187,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -178,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +485,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +511,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -599,13 +659,104 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1350</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>450</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="0"/>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <v>780</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <v>560</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Накладная" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>ООО    Аленький цветочек</t>
   </si>
@@ -93,16 +93,66 @@
   </si>
   <si>
     <t>Египет</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>Цена в $</t>
+  </si>
+  <si>
+    <t>Цена в руб.</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Сумма в руб.</t>
+  </si>
+  <si>
+    <t>Кофеварка</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Тостер</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
+    <t>Плеер</t>
+  </si>
+  <si>
+    <t>СВЧ печь</t>
+  </si>
+  <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>Фен</t>
+  </si>
+  <si>
+    <t>Мангитофон</t>
+  </si>
+  <si>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Курс доллара</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -166,7 +216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,6 +227,11 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,18 +551,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44954</v>
@@ -661,7 +715,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -676,21 +730,21 @@
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <v>67.5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -698,10 +752,10 @@
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1350</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <f>B3*$B$1</f>
         <v>91125</v>
       </c>
@@ -710,10 +764,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>450</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
         <v>30375</v>
       </c>
@@ -722,10 +776,10 @@
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1180</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>79650</v>
       </c>
@@ -734,10 +788,10 @@
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>780</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>52650</v>
       </c>
@@ -746,10 +800,10 @@
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>560</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>37800</v>
       </c>
@@ -762,12 +816,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10">
+        <v>70</v>
+      </c>
+      <c r="D2" s="11">
+        <f>C2*$B$13</f>
+        <v>2359</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11">
+        <f>E2*D2</f>
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10">
+        <v>900</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D11" si="0">C3*$B$13</f>
+        <v>30330.000000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F11" si="1">E3*D3</f>
+        <v>121320.00000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="10">
+        <v>60</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>2022.0000000000002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="1"/>
+        <v>6066.0000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10">
+        <v>150</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>5055</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="10">
+        <v>600</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>20220</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>40440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10">
+        <v>300</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>10110</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>30330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>2359</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>2190.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>19714.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10">
+        <v>400</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>13480.000000000002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>67400.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>1348</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>